--- a/forms/po/po_sts_xls.xlsx
+++ b/forms/po/po_sts_xls.xlsx
@@ -92,12 +92,30 @@
     <t xml:space="preserve">RP </t>
   </si>
   <si>
+    <t>40/SJK/SKN/IV/20</t>
+  </si>
+  <si>
+    <t>31 Aug 2020</t>
+  </si>
+  <si>
+    <t>15 Apr 2020</t>
+  </si>
+  <si>
+    <t>-138 DAY</t>
+  </si>
+  <si>
+    <t>31/SJK/SKN/II/20</t>
+  </si>
+  <si>
+    <t>17 Feb 2020</t>
+  </si>
+  <si>
+    <t>-196 DAY</t>
+  </si>
+  <si>
     <t>37/SJK/SKN/V/20</t>
   </si>
   <si>
-    <t>31 Aug 2020</t>
-  </si>
-  <si>
     <t>19 May 2020</t>
   </si>
   <si>
@@ -113,24 +131,6 @@
     <t>-38 DAY</t>
   </si>
   <si>
-    <t>40/SJK/SKN/IV/20</t>
-  </si>
-  <si>
-    <t>15 Apr 2020</t>
-  </si>
-  <si>
-    <t>-138 DAY</t>
-  </si>
-  <si>
-    <t>31/SJK/SKN/II/20</t>
-  </si>
-  <si>
-    <t>17 Feb 2020</t>
-  </si>
-  <si>
-    <t>-196 DAY</t>
-  </si>
-  <si>
     <t>FI-OA/20-099</t>
   </si>
   <si>
@@ -164,108 +164,108 @@
     <t>LAYER EVE SILV ID LR6 BK</t>
   </si>
   <si>
+    <t>08-2020-00227</t>
+  </si>
+  <si>
+    <t>03 Aug 2020</t>
+  </si>
+  <si>
+    <t>04 Aug 2020</t>
+  </si>
+  <si>
+    <t>1 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-00735</t>
+  </si>
+  <si>
+    <t>07 Aug 2020</t>
+  </si>
+  <si>
+    <t>4 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02646</t>
+  </si>
+  <si>
+    <t>26 Aug 2020</t>
+  </si>
+  <si>
+    <t>23 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02131</t>
+  </si>
+  <si>
+    <t>21 Aug 2020</t>
+  </si>
+  <si>
+    <t>18 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-00033</t>
+  </si>
+  <si>
+    <t>08-2020-01136</t>
+  </si>
+  <si>
+    <t>11 Aug 2020</t>
+  </si>
+  <si>
+    <t>8 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02497</t>
+  </si>
+  <si>
+    <t>25 Aug 2020</t>
+  </si>
+  <si>
+    <t>22 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02915</t>
+  </si>
+  <si>
+    <t>28 Aug 2020</t>
+  </si>
+  <si>
+    <t>25 DAY</t>
+  </si>
+  <si>
+    <t>07-2020-03128</t>
+  </si>
+  <si>
+    <t>30 Jul 2020</t>
+  </si>
+  <si>
+    <t>-4 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02767</t>
+  </si>
+  <si>
+    <t>27 Aug 2020</t>
+  </si>
+  <si>
+    <t>24 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-03058</t>
+  </si>
+  <si>
+    <t>28 DAY</t>
+  </si>
+  <si>
     <t>05-2020-00578</t>
   </si>
   <si>
-    <t>03 Aug 2020</t>
-  </si>
-  <si>
     <t>06 Aug 2020</t>
   </si>
   <si>
     <t>3 DAY</t>
   </si>
   <si>
-    <t>08-2020-00227</t>
-  </si>
-  <si>
-    <t>04 Aug 2020</t>
-  </si>
-  <si>
-    <t>1 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-00735</t>
-  </si>
-  <si>
-    <t>07 Aug 2020</t>
-  </si>
-  <si>
-    <t>4 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-02646</t>
-  </si>
-  <si>
-    <t>26 Aug 2020</t>
-  </si>
-  <si>
-    <t>23 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-00033</t>
-  </si>
-  <si>
-    <t>08-2020-01136</t>
-  </si>
-  <si>
-    <t>11 Aug 2020</t>
-  </si>
-  <si>
-    <t>8 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-02497</t>
-  </si>
-  <si>
-    <t>25 Aug 2020</t>
-  </si>
-  <si>
-    <t>22 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-02915</t>
-  </si>
-  <si>
-    <t>28 Aug 2020</t>
-  </si>
-  <si>
-    <t>25 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-02131</t>
-  </si>
-  <si>
-    <t>21 Aug 2020</t>
-  </si>
-  <si>
-    <t>18 DAY</t>
-  </si>
-  <si>
-    <t>07-2020-03128</t>
-  </si>
-  <si>
-    <t>30 Jul 2020</t>
-  </si>
-  <si>
-    <t>-4 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-02767</t>
-  </si>
-  <si>
-    <t>27 Aug 2020</t>
-  </si>
-  <si>
-    <t>24 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-03058</t>
-  </si>
-  <si>
-    <t>28 DAY</t>
-  </si>
-  <si>
     <t>FI-OS/20-007</t>
   </si>
   <si>
@@ -305,27 +305,27 @@
     <t>PALLET ISPM A SIZE :110X110X15</t>
   </si>
   <si>
+    <t>23/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>10 Aug 2020</t>
+  </si>
+  <si>
+    <t>27/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>13 Aug 2020</t>
+  </si>
+  <si>
+    <t>50/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>15 DAY</t>
+  </si>
+  <si>
     <t>31/SJK/SKN/VIII/20</t>
   </si>
   <si>
-    <t>10 Aug 2020</t>
-  </si>
-  <si>
-    <t>23/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>27/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>13 Aug 2020</t>
-  </si>
-  <si>
-    <t>50/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>15 DAY</t>
-  </si>
-  <si>
     <t>TRIPLEK 81X83X3MM</t>
   </si>
   <si>
@@ -368,6 +368,18 @@
     <t>I AMAZON BSC LR6 (4SX12) R7</t>
   </si>
   <si>
+    <t>08-2020-00736</t>
+  </si>
+  <si>
+    <t>-7 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-01139</t>
+  </si>
+  <si>
+    <t>-3 DAY</t>
+  </si>
+  <si>
     <t>08-2020-01258</t>
   </si>
   <si>
@@ -386,18 +398,6 @@
     <t>08-2020-00774</t>
   </si>
   <si>
-    <t>-7 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-00736</t>
-  </si>
-  <si>
-    <t>08-2020-01139</t>
-  </si>
-  <si>
-    <t>-3 DAY</t>
-  </si>
-  <si>
     <t>FI-KN/20-028</t>
   </si>
   <si>
@@ -407,18 +407,51 @@
     <t>45/SJK/SKN/VIII/20.</t>
   </si>
   <si>
+    <t>58/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>63/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
     <t>47/SJK/SKN/VIII/20</t>
   </si>
   <si>
-    <t>58/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>63/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
     <t>TRIPLEK 844.4X102.4X6MM</t>
   </si>
   <si>
+    <t>15/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>-6 DAY</t>
+  </si>
+  <si>
+    <t>44/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>53/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>13 DAY</t>
+  </si>
+  <si>
+    <t>64/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>59/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>52/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>12 DAY</t>
+  </si>
+  <si>
+    <t>06/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>-9 DAY</t>
+  </si>
+  <si>
     <t>41/SJK/SKN/VIII/20</t>
   </si>
   <si>
@@ -428,39 +461,6 @@
     <t>6 DAY</t>
   </si>
   <si>
-    <t>06/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>-9 DAY</t>
-  </si>
-  <si>
-    <t>15/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>-6 DAY</t>
-  </si>
-  <si>
-    <t>44/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>53/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>13 DAY</t>
-  </si>
-  <si>
-    <t>64/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>59/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>52/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>12 DAY</t>
-  </si>
-  <si>
     <t>TRIPLEK PENYANGGA</t>
   </si>
   <si>
@@ -500,30 +500,30 @@
     <t>5 DAY</t>
   </si>
   <si>
+    <t>51/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>62/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>9 DAY</t>
+  </si>
+  <si>
+    <t>57/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>55/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>7 DAY</t>
+  </si>
+  <si>
     <t>43/SJK/SKN/VIII/20</t>
   </si>
   <si>
     <t>2 DAY</t>
   </si>
   <si>
-    <t>51/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>62/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>9 DAY</t>
-  </si>
-  <si>
-    <t>57/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>55/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>7 DAY</t>
-  </si>
-  <si>
     <t>FI-OA/20-106</t>
   </si>
   <si>
@@ -581,12 +581,12 @@
     <t>BOT TRY EVE SILV ID LR6 BK R3</t>
   </si>
   <si>
+    <t>08-2020-01558</t>
+  </si>
+  <si>
     <t>08-2020-02096</t>
   </si>
   <si>
-    <t>08-2020-01558</t>
-  </si>
-  <si>
     <t>FI-OA/20-105</t>
   </si>
   <si>
@@ -596,6 +596,9 @@
     <t>18 Aug 2020</t>
   </si>
   <si>
+    <t>08-2020-01758</t>
+  </si>
+  <si>
     <t>08-2020-02916</t>
   </si>
   <si>
@@ -611,9 +614,6 @@
     <t>08-2020-03060</t>
   </si>
   <si>
-    <t>08-2020-01758</t>
-  </si>
-  <si>
     <t>O AMAZON BSC LR03 (4SX5) R6</t>
   </si>
   <si>
@@ -632,10 +632,10 @@
     <t>O AMAZON BSC LR6 (4SX12) R6</t>
   </si>
   <si>
+    <t>08-2020-01755</t>
+  </si>
+  <si>
     <t>08-2020-01938</t>
-  </si>
-  <si>
-    <t>08-2020-01755</t>
   </si>
   <si>
     <t>08-2020-01559</t>
@@ -1229,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="Q2" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>26</v>
@@ -1337,7 +1337,7 @@
         <v>32</v>
       </c>
       <c r="Q4" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>26</v>
@@ -1515,7 +1515,7 @@
         <v>49</v>
       </c>
       <c r="Q7" s="2">
-        <v>6450</v>
+        <v>556</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>50</v>
@@ -1569,7 +1569,7 @@
         <v>53</v>
       </c>
       <c r="Q8" s="2">
-        <v>556</v>
+        <v>7566</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>50</v>
@@ -1623,7 +1623,7 @@
         <v>56</v>
       </c>
       <c r="Q9" s="2">
-        <v>7566</v>
+        <v>1750</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>50</v>
@@ -1677,7 +1677,7 @@
         <v>59</v>
       </c>
       <c r="Q10" s="2">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>50</v>
@@ -1947,7 +1947,7 @@
         <v>72</v>
       </c>
       <c r="Q15" s="2">
-        <v>500</v>
+        <v>916</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>50</v>
@@ -2001,7 +2001,7 @@
         <v>75</v>
       </c>
       <c r="Q16" s="2">
-        <v>916</v>
+        <v>1063</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>50</v>
@@ -2055,16 +2055,16 @@
         <v>78</v>
       </c>
       <c r="Q17" s="2">
-        <v>1063</v>
+        <v>5506</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2106,16 +2106,16 @@
         <v>6577.2</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2">
-        <v>5506</v>
+        <v>6450</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>82</v>
@@ -2177,7 +2177,7 @@
         <v>70</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>89</v>
@@ -2231,7 +2231,7 @@
         <v>70</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>89</v>
@@ -2349,16 +2349,16 @@
         <v>96</v>
       </c>
       <c r="Q22" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>98</v>
       </c>
       <c r="Q23" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2454,19 +2454,19 @@
         <v>1836</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2508,19 +2508,19 @@
         <v>1836</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2587,7 +2587,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -2635,7 +2635,7 @@
         <v>97</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>108</v>
@@ -2680,7 +2680,7 @@
         <v>631.5</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="2">
         <v>4543</v>
@@ -2689,7 +2689,7 @@
         <v>97</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>109</v>
@@ -2734,19 +2734,19 @@
         <v>631.5</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="2">
-        <v>130</v>
+        <v>1609</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2788,19 +2788,19 @@
         <v>631.5</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q30" s="2">
-        <v>1609</v>
+        <v>5500</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2842,19 +2842,19 @@
         <v>631.5</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="2">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2896,19 +2896,19 @@
         <v>631.5</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="Q32" s="2">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2919,7 +2919,7 @@
         <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>40</v>
@@ -2960,7 +2960,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
@@ -2975,7 +2975,7 @@
         <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>40</v>
@@ -3016,7 +3016,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2" t="s">
@@ -3031,7 +3031,7 @@
         <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>40</v>
@@ -3073,16 +3073,16 @@
         <v>117</v>
       </c>
       <c r="Q35" s="2">
-        <v>16669</v>
+        <v>5922</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T35" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3124,19 +3124,19 @@
         <v>14800</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="2">
-        <v>21367</v>
+        <v>14640</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3181,16 +3181,16 @@
         <v>121</v>
       </c>
       <c r="Q37" s="2">
-        <v>16303</v>
+        <v>16669</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3232,19 +3232,19 @@
         <v>14800</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q38" s="2">
-        <v>17076</v>
+        <v>21367</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3286,19 +3286,19 @@
         <v>14800</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q39" s="2">
-        <v>5922</v>
+        <v>16303</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3340,19 +3340,19 @@
         <v>14800</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q40" s="2">
-        <v>14640</v>
+        <v>17076</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3363,7 +3363,7 @@
         <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
@@ -3408,10 +3408,10 @@
         <v>50</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>65</v>
@@ -3459,16 +3459,16 @@
         <v>130</v>
       </c>
       <c r="Q42" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3516,13 +3516,13 @@
         <v>100</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3567,16 +3567,16 @@
         <v>132</v>
       </c>
       <c r="Q44" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3587,7 +3587,7 @@
         <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>22</v>
@@ -3629,16 +3629,16 @@
         <v>134</v>
       </c>
       <c r="Q45" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T45" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3680,19 +3680,19 @@
         <v>1768</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q46" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3734,19 +3734,19 @@
         <v>1768</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q47" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3788,19 +3788,19 @@
         <v>1768</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q48" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3842,19 +3842,19 @@
         <v>1768</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q49" s="2">
         <v>50</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3896,19 +3896,19 @@
         <v>1768</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q50" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3950,19 +3950,19 @@
         <v>1768</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q51" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4004,16 +4004,16 @@
         <v>1768</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q52" s="2">
         <v>50</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>147</v>
@@ -4027,7 +4027,7 @@
         <v>127</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>22</v>
@@ -4072,13 +4072,13 @@
         <v>200</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4126,13 +4126,13 @@
         <v>100</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4180,7 +4180,7 @@
         <v>100</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>91</v>
@@ -4234,13 +4234,13 @@
         <v>200</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4251,7 +4251,7 @@
         <v>154</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>155</v>
@@ -4358,7 +4358,7 @@
         <v>175</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>111</v>
@@ -4409,16 +4409,16 @@
         <v>161</v>
       </c>
       <c r="Q59" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4460,19 +4460,19 @@
         <v>4590</v>
       </c>
       <c r="P60" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>50</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T60" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>60</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4517,16 +4517,16 @@
         <v>164</v>
       </c>
       <c r="Q61" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4568,19 +4568,19 @@
         <v>4590</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q62" s="2">
         <v>60</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4625,10 +4625,10 @@
         <v>167</v>
       </c>
       <c r="Q63" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>60</v>
@@ -4686,7 +4686,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2" t="s">
@@ -4746,13 +4746,13 @@
         <v>30</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4800,13 +4800,13 @@
         <v>100</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4854,10 +4854,10 @@
         <v>20</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>160</v>
@@ -4908,13 +4908,13 @@
         <v>30</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5037,7 +5037,7 @@
         <v>179</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>40</v>
@@ -5076,19 +5076,19 @@
         <v>597</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="Q71" s="2">
-        <v>4162</v>
+        <v>9472</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5130,19 +5130,19 @@
         <v>597</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="Q72" s="2">
-        <v>4096</v>
+        <v>9650</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5184,19 +5184,19 @@
         <v>597</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="Q73" s="2">
-        <v>9472</v>
+        <v>4162</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5238,19 +5238,19 @@
         <v>597</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="Q74" s="2">
-        <v>9650</v>
+        <v>4096</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5261,7 +5261,7 @@
         <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>40</v>
@@ -5309,10 +5309,10 @@
         <v>70</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5363,10 +5363,10 @@
         <v>70</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5408,19 +5408,19 @@
         <v>5287.3</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="Q77" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5462,19 +5462,19 @@
         <v>5287.3</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="Q78" s="2">
-        <v>1000</v>
+        <v>1956</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5516,19 +5516,19 @@
         <v>5287.3</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q79" s="2">
-        <v>1956</v>
+        <v>2000</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5539,7 +5539,7 @@
         <v>179</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>40</v>
@@ -5581,16 +5581,16 @@
         <v>188</v>
       </c>
       <c r="Q80" s="2">
-        <v>2850</v>
+        <v>2060</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5632,19 +5632,19 @@
         <v>2983</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="Q81" s="2">
-        <v>3000</v>
+        <v>2850</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5686,19 +5686,19 @@
         <v>2983</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q82" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -5740,19 +5740,19 @@
         <v>2983</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="Q83" s="2">
-        <v>2060</v>
+        <v>1000</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>111</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5763,7 +5763,7 @@
         <v>190</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>40</v>
@@ -5802,7 +5802,7 @@
         <v>4081</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q84" s="2">
         <v>13698</v>
@@ -5811,10 +5811,10 @@
         <v>192</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5859,16 +5859,16 @@
         <v>193</v>
       </c>
       <c r="Q85" s="2">
-        <v>24802</v>
+        <v>317</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5910,19 +5910,19 @@
         <v>4081</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q86" s="2">
-        <v>1850</v>
+        <v>24802</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5964,19 +5964,19 @@
         <v>4081</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q87" s="2">
-        <v>26602</v>
+        <v>1850</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6021,16 +6021,16 @@
         <v>198</v>
       </c>
       <c r="Q88" s="2">
-        <v>317</v>
+        <v>26602</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6041,7 +6041,7 @@
         <v>190</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>40</v>
@@ -6080,19 +6080,19 @@
         <v>1025.25</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="Q89" s="2">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6134,7 +6134,7 @@
         <v>1025.25</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q90" s="2">
         <v>303</v>
@@ -6143,10 +6143,10 @@
         <v>192</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6188,19 +6188,19 @@
         <v>1025.25</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="Q91" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6242,19 +6242,19 @@
         <v>1025.25</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="Q92" s="2">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6265,7 +6265,7 @@
         <v>190</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>40</v>
@@ -6313,10 +6313,10 @@
         <v>192</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6358,19 +6358,19 @@
         <v>6325</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q94" s="2">
-        <v>3544</v>
+        <v>2288</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6412,19 +6412,19 @@
         <v>6325</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q95" s="2">
-        <v>17743</v>
+        <v>17022</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6466,19 +6466,19 @@
         <v>6325</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q96" s="2">
-        <v>730</v>
+        <v>3544</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -6520,19 +6520,19 @@
         <v>6325</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q97" s="2">
-        <v>2288</v>
+        <v>17743</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -6574,19 +6574,19 @@
         <v>6325</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q98" s="2">
-        <v>17022</v>
+        <v>730</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -6597,7 +6597,7 @@
         <v>190</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>40</v>
@@ -6636,19 +6636,19 @@
         <v>4810</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Q99" s="2">
-        <v>28854</v>
+        <v>18606</v>
       </c>
       <c r="R99" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -6690,19 +6690,19 @@
         <v>4810</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q100" s="2">
-        <v>14062</v>
+        <v>28854</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -6744,10 +6744,10 @@
         <v>4810</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="Q101" s="2">
-        <v>18606</v>
+        <v>14062</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>192</v>
@@ -6756,7 +6756,7 @@
         <v>26</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -6767,7 +6767,7 @@
         <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>40</v>
@@ -6823,7 +6823,7 @@
         <v>190</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>40</v>
@@ -6862,19 +6862,19 @@
         <v>16058.6</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="Q103" s="2">
-        <v>2483</v>
+        <v>1000</v>
       </c>
       <c r="R103" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -6916,7 +6916,7 @@
         <v>16058.6</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q104" s="2">
         <v>1000</v>
@@ -6925,10 +6925,10 @@
         <v>192</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -6970,7 +6970,7 @@
         <v>16058.6</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="Q105" s="2">
         <v>1000</v>
@@ -6979,10 +6979,10 @@
         <v>192</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7024,7 +7024,7 @@
         <v>16058.6</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="Q106" s="2">
         <v>1000</v>
@@ -7033,10 +7033,10 @@
         <v>192</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7078,7 +7078,7 @@
         <v>16058.6</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q107" s="2">
         <v>3592</v>
@@ -7132,7 +7132,7 @@
         <v>16058.6</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q108" s="2">
         <v>2031</v>
@@ -7141,10 +7141,10 @@
         <v>192</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7195,10 +7195,10 @@
         <v>192</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7249,10 +7249,10 @@
         <v>192</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7294,7 +7294,7 @@
         <v>16058.6</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q111" s="2">
         <v>913</v>
@@ -7303,10 +7303,10 @@
         <v>192</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7348,7 +7348,7 @@
         <v>16058.6</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q112" s="2">
         <v>1532</v>
@@ -7357,7 +7357,7 @@
         <v>192</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>65</v>
@@ -7402,19 +7402,19 @@
         <v>16058.6</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="Q113" s="2">
-        <v>244</v>
+        <v>1008</v>
       </c>
       <c r="R113" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -7456,19 +7456,19 @@
         <v>16058.6</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="Q114" s="2">
-        <v>1008</v>
+        <v>2483</v>
       </c>
       <c r="R114" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -7510,10 +7510,10 @@
         <v>16058.6</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="Q115" s="2">
-        <v>1000</v>
+        <v>317</v>
       </c>
       <c r="R115" s="3" t="s">
         <v>192</v>
@@ -7522,7 +7522,7 @@
         <v>44</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -7564,19 +7564,19 @@
         <v>16058.6</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="Q116" s="2">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="R116" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -7587,7 +7587,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>40</v>
@@ -7626,7 +7626,7 @@
         <v>294.84</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q117" s="2">
         <v>1044</v>
@@ -7635,7 +7635,7 @@
         <v>192</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T117" s="2" t="s">
         <v>65</v>
@@ -7680,19 +7680,19 @@
         <v>294.84</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="Q118" s="2">
-        <v>307</v>
+        <v>870</v>
       </c>
       <c r="R118" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -7734,19 +7734,19 @@
         <v>294.84</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q119" s="2">
-        <v>870</v>
+        <v>1500</v>
       </c>
       <c r="R119" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -7788,19 +7788,19 @@
         <v>294.84</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q120" s="2">
-        <v>1500</v>
+        <v>1580</v>
       </c>
       <c r="R120" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -7842,19 +7842,19 @@
         <v>294.84</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="Q121" s="2">
-        <v>1580</v>
+        <v>307</v>
       </c>
       <c r="R121" s="3" t="s">
         <v>192</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -7865,7 +7865,7 @@
         <v>190</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>40</v>
@@ -7921,7 +7921,7 @@
         <v>210</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>40</v>
@@ -7960,7 +7960,7 @@
         <v>5287.3</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q123" s="2">
         <v>1255</v>
@@ -7969,10 +7969,10 @@
         <v>70</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8014,19 +8014,19 @@
         <v>5287.3</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="Q124" s="2">
-        <v>410</v>
+        <v>2597</v>
       </c>
       <c r="R124" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8068,19 +8068,19 @@
         <v>5287.3</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="Q125" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R125" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8122,19 +8122,19 @@
         <v>5287.3</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Q126" s="2">
-        <v>1665</v>
+        <v>985</v>
       </c>
       <c r="R126" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8176,19 +8176,19 @@
         <v>5287.3</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="Q127" s="2">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="R127" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8230,19 +8230,19 @@
         <v>5287.3</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="Q128" s="2">
-        <v>2597</v>
+        <v>2000</v>
       </c>
       <c r="R128" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -8284,19 +8284,19 @@
         <v>5287.3</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="Q129" s="2">
-        <v>985</v>
+        <v>1665</v>
       </c>
       <c r="R129" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -8355,7 +8355,7 @@
         <v>26</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>216</v>
@@ -8520,7 +8520,7 @@
         <v>5.4</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q133" s="2">
         <v>144</v>
@@ -8529,10 +8529,10 @@
         <v>26</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -8927,10 +8927,10 @@
         <v>26</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9266,13 +9266,13 @@
         <v>5953</v>
       </c>
       <c r="R146" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -9324,7 +9324,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S147" s="2"/>
       <c r="T147" s="2" t="s">
@@ -9380,7 +9380,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S148" s="2"/>
       <c r="T148" s="2" t="s">

--- a/forms/po/po_sts_xls.xlsx
+++ b/forms/po/po_sts_xls.xlsx
@@ -92,12 +92,30 @@
     <t xml:space="preserve">RP </t>
   </si>
   <si>
+    <t>37/SJK/SKN/V/20</t>
+  </si>
+  <si>
+    <t>31 Aug 2020</t>
+  </si>
+  <si>
+    <t>19 May 2020</t>
+  </si>
+  <si>
+    <t>-104 DAY</t>
+  </si>
+  <si>
+    <t>53/SJK/SKN/VII/20</t>
+  </si>
+  <si>
+    <t>24 Jul 2020</t>
+  </si>
+  <si>
+    <t>-38 DAY</t>
+  </si>
+  <si>
     <t>40/SJK/SKN/IV/20</t>
   </si>
   <si>
-    <t>31 Aug 2020</t>
-  </si>
-  <si>
     <t>15 Apr 2020</t>
   </si>
   <si>
@@ -113,24 +131,6 @@
     <t>-196 DAY</t>
   </si>
   <si>
-    <t>37/SJK/SKN/V/20</t>
-  </si>
-  <si>
-    <t>19 May 2020</t>
-  </si>
-  <si>
-    <t>-104 DAY</t>
-  </si>
-  <si>
-    <t>53/SJK/SKN/VII/20</t>
-  </si>
-  <si>
-    <t>24 Jul 2020</t>
-  </si>
-  <si>
-    <t>-38 DAY</t>
-  </si>
-  <si>
     <t>FI-OA/20-099</t>
   </si>
   <si>
@@ -164,12 +164,69 @@
     <t>LAYER EVE SILV ID LR6 BK</t>
   </si>
   <si>
+    <t>05-2020-00578</t>
+  </si>
+  <si>
+    <t>03 Aug 2020</t>
+  </si>
+  <si>
+    <t>06 Aug 2020</t>
+  </si>
+  <si>
+    <t>3 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-00033</t>
+  </si>
+  <si>
+    <t>08-2020-01136</t>
+  </si>
+  <si>
+    <t>11 Aug 2020</t>
+  </si>
+  <si>
+    <t>8 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02497</t>
+  </si>
+  <si>
+    <t>25 Aug 2020</t>
+  </si>
+  <si>
+    <t>22 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02915</t>
+  </si>
+  <si>
+    <t>28 Aug 2020</t>
+  </si>
+  <si>
+    <t>25 DAY</t>
+  </si>
+  <si>
+    <t>08-2020-02131</t>
+  </si>
+  <si>
+    <t>21 Aug 2020</t>
+  </si>
+  <si>
+    <t>18 DAY</t>
+  </si>
+  <si>
+    <t>07-2020-03128</t>
+  </si>
+  <si>
+    <t>30 Jul 2020</t>
+  </si>
+  <si>
+    <t>-4 DAY</t>
+  </si>
+  <si>
     <t>08-2020-00227</t>
   </si>
   <si>
-    <t>03 Aug 2020</t>
-  </si>
-  <si>
     <t>04 Aug 2020</t>
   </si>
   <si>
@@ -194,54 +251,6 @@
     <t>23 DAY</t>
   </si>
   <si>
-    <t>08-2020-02131</t>
-  </si>
-  <si>
-    <t>21 Aug 2020</t>
-  </si>
-  <si>
-    <t>18 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-00033</t>
-  </si>
-  <si>
-    <t>08-2020-01136</t>
-  </si>
-  <si>
-    <t>11 Aug 2020</t>
-  </si>
-  <si>
-    <t>8 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-02497</t>
-  </si>
-  <si>
-    <t>25 Aug 2020</t>
-  </si>
-  <si>
-    <t>22 DAY</t>
-  </si>
-  <si>
-    <t>08-2020-02915</t>
-  </si>
-  <si>
-    <t>28 Aug 2020</t>
-  </si>
-  <si>
-    <t>25 DAY</t>
-  </si>
-  <si>
-    <t>07-2020-03128</t>
-  </si>
-  <si>
-    <t>30 Jul 2020</t>
-  </si>
-  <si>
-    <t>-4 DAY</t>
-  </si>
-  <si>
     <t>08-2020-02767</t>
   </si>
   <si>
@@ -257,15 +266,6 @@
     <t>28 DAY</t>
   </si>
   <si>
-    <t>05-2020-00578</t>
-  </si>
-  <si>
-    <t>06 Aug 2020</t>
-  </si>
-  <si>
-    <t>3 DAY</t>
-  </si>
-  <si>
     <t>FI-OS/20-007</t>
   </si>
   <si>
@@ -305,12 +305,15 @@
     <t>PALLET ISPM A SIZE :110X110X15</t>
   </si>
   <si>
+    <t>31/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>10 Aug 2020</t>
+  </si>
+  <si>
     <t>23/SJK/SKN/VIII/20</t>
   </si>
   <si>
-    <t>10 Aug 2020</t>
-  </si>
-  <si>
     <t>27/SJK/SKN/VIII/20</t>
   </si>
   <si>
@@ -323,9 +326,6 @@
     <t>15 DAY</t>
   </si>
   <si>
-    <t>31/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
     <t>TRIPLEK 81X83X3MM</t>
   </si>
   <si>
@@ -338,24 +338,24 @@
     <t>LAYER AMAZON BSC LR6 (4SX12)R3</t>
   </si>
   <si>
+    <t>08-2020-02326</t>
+  </si>
+  <si>
+    <t>24 Aug 2020</t>
+  </si>
+  <si>
+    <t>14 DAY</t>
+  </si>
+  <si>
+    <t>11 DAY</t>
+  </si>
+  <si>
     <t>08-2020-02094</t>
   </si>
   <si>
-    <t>11 DAY</t>
-  </si>
-  <si>
     <t>16 DAY</t>
   </si>
   <si>
-    <t>08-2020-02326</t>
-  </si>
-  <si>
-    <t>24 Aug 2020</t>
-  </si>
-  <si>
-    <t>14 DAY</t>
-  </si>
-  <si>
     <t>TOP TRAY EVE GOLD US LR6 BK R3</t>
   </si>
   <si>
@@ -368,12 +368,15 @@
     <t>I AMAZON BSC LR6 (4SX12) R7</t>
   </si>
   <si>
+    <t>08-2020-00774</t>
+  </si>
+  <si>
+    <t>-7 DAY</t>
+  </si>
+  <si>
     <t>08-2020-00736</t>
   </si>
   <si>
-    <t>-7 DAY</t>
-  </si>
-  <si>
     <t>08-2020-01139</t>
   </si>
   <si>
@@ -395,30 +398,45 @@
     <t>08-2020-01393</t>
   </si>
   <si>
-    <t>08-2020-00774</t>
-  </si>
-  <si>
     <t>FI-KN/20-028</t>
   </si>
   <si>
     <t>TRIPLEK 844.4X102.4X3MM</t>
   </si>
   <si>
+    <t>47/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>58/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
     <t>45/SJK/SKN/VIII/20.</t>
   </si>
   <si>
-    <t>58/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
     <t>63/SJK/SKN/VIII/20</t>
   </si>
   <si>
-    <t>47/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
     <t>TRIPLEK 844.4X102.4X6MM</t>
   </si>
   <si>
+    <t>41/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>19 Aug 2020</t>
+  </si>
+  <si>
+    <t>6 DAY</t>
+  </si>
+  <si>
+    <t>06/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>-9 DAY</t>
+  </si>
+  <si>
+    <t>59/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
     <t>15/SJK/SKN/VIII/20</t>
   </si>
   <si>
@@ -437,30 +455,12 @@
     <t>64/SJK/SKN/VIII/20</t>
   </si>
   <si>
-    <t>59/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
     <t>52/SJK/SKN/VIII/20</t>
   </si>
   <si>
     <t>12 DAY</t>
   </si>
   <si>
-    <t>06/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>-9 DAY</t>
-  </si>
-  <si>
-    <t>41/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>19 Aug 2020</t>
-  </si>
-  <si>
-    <t>6 DAY</t>
-  </si>
-  <si>
     <t>TRIPLEK PENYANGGA</t>
   </si>
   <si>
@@ -494,21 +494,27 @@
     <t>PALLET ISPM B SIZE:120X100X15</t>
   </si>
   <si>
+    <t>43/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>2 DAY</t>
+  </si>
+  <si>
+    <t>51/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>62/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
+    <t>9 DAY</t>
+  </si>
+  <si>
     <t>46/SJK/SKN/VIII/20</t>
   </si>
   <si>
     <t>5 DAY</t>
   </si>
   <si>
-    <t>51/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>62/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>9 DAY</t>
-  </si>
-  <si>
     <t>57/SJK/SKN/VIII/20</t>
   </si>
   <si>
@@ -518,12 +524,6 @@
     <t>7 DAY</t>
   </si>
   <si>
-    <t>43/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
-    <t>2 DAY</t>
-  </si>
-  <si>
     <t>FI-OA/20-106</t>
   </si>
   <si>
@@ -533,15 +533,15 @@
     <t>PALLET ISPM E SIZE:1200X100X15</t>
   </si>
   <si>
+    <t>54/SJK/SKN/VIII/20</t>
+  </si>
+  <si>
     <t>60/SJK/SKN/VIII/20</t>
   </si>
   <si>
     <t>61/SJK/SKN/VIII/20</t>
   </si>
   <si>
-    <t>54/SJK/SKN/VIII/20</t>
-  </si>
-  <si>
     <t>49/SJK/SKN/VIII/20</t>
   </si>
   <si>
@@ -581,21 +581,30 @@
     <t>BOT TRY EVE SILV ID LR6 BK R3</t>
   </si>
   <si>
+    <t>08-2020-02096</t>
+  </si>
+  <si>
     <t>08-2020-01558</t>
   </si>
   <si>
-    <t>08-2020-02096</t>
-  </si>
-  <si>
     <t>FI-OA/20-105</t>
   </si>
   <si>
     <t>I AMAZON BSC LR03 (4SX5) R7</t>
   </si>
   <si>
+    <t>09-2020-00011</t>
+  </si>
+  <si>
     <t>18 Aug 2020</t>
   </si>
   <si>
+    <t>01 Sep 2020</t>
+  </si>
+  <si>
+    <t>08-2020-03060</t>
+  </si>
+  <si>
     <t>08-2020-01758</t>
   </si>
   <si>
@@ -605,40 +614,31 @@
     <t>10 DAY</t>
   </si>
   <si>
-    <t>09-2020-00011</t>
-  </si>
-  <si>
-    <t>01 Sep 2020</t>
-  </si>
-  <si>
-    <t>08-2020-03060</t>
-  </si>
-  <si>
     <t>O AMAZON BSC LR03 (4SX5) R6</t>
   </si>
   <si>
     <t xml:space="preserve">I AMAZON BSC LR6 (4SX5) MLTR1 </t>
   </si>
   <si>
+    <t>08-2020-02647</t>
+  </si>
+  <si>
     <t>08-2020-01936</t>
   </si>
   <si>
-    <t>08-2020-02647</t>
-  </si>
-  <si>
     <t>I AMZN BSC LR6 (4SX12)MULTI R4</t>
   </si>
   <si>
     <t>O AMAZON BSC LR6 (4SX12) R6</t>
   </si>
   <si>
+    <t>08-2020-01938</t>
+  </si>
+  <si>
+    <t>08-2020-01559</t>
+  </si>
+  <si>
     <t>08-2020-01755</t>
-  </si>
-  <si>
-    <t>08-2020-01938</t>
-  </si>
-  <si>
-    <t>08-2020-01559</t>
   </si>
   <si>
     <t>LAYER AMAZON BSC LR6 (4SX5) R3</t>
@@ -1229,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="Q2" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>26</v>
@@ -1337,7 +1337,7 @@
         <v>32</v>
       </c>
       <c r="Q4" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>26</v>
@@ -1515,7 +1515,7 @@
         <v>49</v>
       </c>
       <c r="Q7" s="2">
-        <v>556</v>
+        <v>6450</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>50</v>
@@ -1569,16 +1569,16 @@
         <v>53</v>
       </c>
       <c r="Q8" s="2">
-        <v>7566</v>
+        <v>931</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1620,19 +1620,19 @@
         <v>6577.2</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="2">
-        <v>1750</v>
+        <v>1333</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1674,19 +1674,19 @@
         <v>6577.2</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1728,19 +1728,19 @@
         <v>6577.2</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="2">
-        <v>931</v>
+        <v>5364</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1785,7 +1785,7 @@
         <v>63</v>
       </c>
       <c r="Q12" s="2">
-        <v>1333</v>
+        <v>500</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>50</v>
@@ -1839,7 +1839,7 @@
         <v>66</v>
       </c>
       <c r="Q13" s="2">
-        <v>3000</v>
+        <v>916</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>50</v>
@@ -1893,7 +1893,7 @@
         <v>69</v>
       </c>
       <c r="Q14" s="2">
-        <v>5364</v>
+        <v>556</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>50</v>
@@ -1947,7 +1947,7 @@
         <v>72</v>
       </c>
       <c r="Q15" s="2">
-        <v>916</v>
+        <v>7566</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>50</v>
@@ -2001,7 +2001,7 @@
         <v>75</v>
       </c>
       <c r="Q16" s="2">
-        <v>1063</v>
+        <v>1750</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>50</v>
@@ -2055,16 +2055,16 @@
         <v>78</v>
       </c>
       <c r="Q17" s="2">
-        <v>5506</v>
+        <v>1063</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2106,16 +2106,16 @@
         <v>6577.2</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2">
-        <v>6450</v>
+        <v>5506</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>82</v>
@@ -2174,10 +2174,10 @@
         <v>200</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>89</v>
@@ -2228,10 +2228,10 @@
         <v>200</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>89</v>
@@ -2290,10 +2290,10 @@
         <v>2858</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>45</v>
@@ -2349,16 +2349,16 @@
         <v>96</v>
       </c>
       <c r="Q22" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>98</v>
       </c>
       <c r="Q23" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2454,19 +2454,19 @@
         <v>1836</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2508,19 +2508,19 @@
         <v>1836</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2587,7 +2587,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -2629,16 +2629,16 @@
         <v>107</v>
       </c>
       <c r="Q27" s="2">
-        <v>1517</v>
+        <v>130</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2680,19 +2680,19 @@
         <v>631.5</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="2">
-        <v>4543</v>
+        <v>1609</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2734,19 +2734,19 @@
         <v>631.5</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q29" s="2">
-        <v>1609</v>
+        <v>5500</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2788,19 +2788,19 @@
         <v>631.5</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="2">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2842,19 +2842,19 @@
         <v>631.5</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="Q31" s="2">
-        <v>1000</v>
+        <v>1517</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2896,16 +2896,16 @@
         <v>631.5</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="2">
-        <v>130</v>
+        <v>4543</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>112</v>
@@ -2919,7 +2919,7 @@
         <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>40</v>
@@ -2960,7 +2960,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
@@ -2975,7 +2975,7 @@
         <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>40</v>
@@ -3016,7 +3016,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2" t="s">
@@ -3031,7 +3031,7 @@
         <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>40</v>
@@ -3073,13 +3073,13 @@
         <v>117</v>
       </c>
       <c r="Q35" s="2">
-        <v>5922</v>
+        <v>17076</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>118</v>
@@ -3127,16 +3127,16 @@
         <v>119</v>
       </c>
       <c r="Q36" s="2">
-        <v>14640</v>
+        <v>5922</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3178,19 +3178,19 @@
         <v>14800</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="2">
-        <v>16669</v>
+        <v>14640</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3232,19 +3232,19 @@
         <v>14800</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q38" s="2">
-        <v>21367</v>
+        <v>16669</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3289,16 +3289,16 @@
         <v>125</v>
       </c>
       <c r="Q39" s="2">
-        <v>16303</v>
+        <v>21367</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3343,16 +3343,16 @@
         <v>126</v>
       </c>
       <c r="Q40" s="2">
-        <v>17076</v>
+        <v>16303</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3363,7 +3363,7 @@
         <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>22</v>
@@ -3405,16 +3405,16 @@
         <v>129</v>
       </c>
       <c r="Q41" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3462,13 +3462,13 @@
         <v>100</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3513,16 +3513,16 @@
         <v>131</v>
       </c>
       <c r="Q43" s="2">
+        <v>50</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="S43" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3567,16 +3567,16 @@
         <v>132</v>
       </c>
       <c r="Q44" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3587,7 +3587,7 @@
         <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>22</v>
@@ -3629,16 +3629,16 @@
         <v>134</v>
       </c>
       <c r="Q45" s="2">
+        <v>50</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="S45" s="2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3680,19 +3680,19 @@
         <v>1768</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q46" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3734,19 +3734,19 @@
         <v>1768</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q47" s="2">
         <v>50</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3788,19 +3788,19 @@
         <v>1768</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q48" s="2">
         <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3842,19 +3842,19 @@
         <v>1768</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q49" s="2">
         <v>50</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3896,19 +3896,19 @@
         <v>1768</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q50" s="2">
         <v>50</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3950,19 +3950,19 @@
         <v>1768</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q51" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4004,16 +4004,16 @@
         <v>1768</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q52" s="2">
         <v>50</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>147</v>
@@ -4027,7 +4027,7 @@
         <v>127</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>22</v>
@@ -4072,13 +4072,13 @@
         <v>200</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4126,13 +4126,13 @@
         <v>100</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4180,7 +4180,7 @@
         <v>100</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>91</v>
@@ -4234,13 +4234,13 @@
         <v>200</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4251,7 +4251,7 @@
         <v>154</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>155</v>
@@ -4296,10 +4296,10 @@
         <v>26886</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>45</v>
@@ -4355,13 +4355,13 @@
         <v>159</v>
       </c>
       <c r="Q58" s="2">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>160</v>
@@ -4412,13 +4412,13 @@
         <v>60</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4466,10 +4466,10 @@
         <v>50</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>163</v>
@@ -4517,16 +4517,16 @@
         <v>164</v>
       </c>
       <c r="Q61" s="2">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4568,19 +4568,19 @@
         <v>4590</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q62" s="2">
         <v>60</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4625,13 +4625,13 @@
         <v>167</v>
       </c>
       <c r="Q63" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>168</v>
@@ -4686,7 +4686,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2" t="s">
@@ -4701,7 +4701,7 @@
         <v>170</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>22</v>
@@ -4743,16 +4743,16 @@
         <v>172</v>
       </c>
       <c r="Q65" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>76</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4797,16 +4797,16 @@
         <v>173</v>
       </c>
       <c r="Q66" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4851,16 +4851,16 @@
         <v>174</v>
       </c>
       <c r="Q67" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4908,13 +4908,13 @@
         <v>30</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4925,7 +4925,7 @@
         <v>176</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>40</v>
@@ -4981,7 +4981,7 @@
         <v>176</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>40</v>
@@ -5037,7 +5037,7 @@
         <v>179</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>40</v>
@@ -5076,19 +5076,19 @@
         <v>597</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="Q71" s="2">
-        <v>9472</v>
+        <v>4162</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5130,19 +5130,19 @@
         <v>597</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="Q72" s="2">
-        <v>9650</v>
+        <v>4096</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5184,19 +5184,19 @@
         <v>597</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="Q73" s="2">
-        <v>4162</v>
+        <v>9472</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5238,19 +5238,19 @@
         <v>597</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q74" s="2">
-        <v>4096</v>
+        <v>9650</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5261,7 +5261,7 @@
         <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>40</v>
@@ -5300,19 +5300,19 @@
         <v>5287.3</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q75" s="2">
         <v>2000</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5354,19 +5354,19 @@
         <v>5287.3</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="Q76" s="2">
-        <v>718</v>
+        <v>1000</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5408,19 +5408,19 @@
         <v>5287.3</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="Q77" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5462,19 +5462,19 @@
         <v>5287.3</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="Q78" s="2">
-        <v>1956</v>
+        <v>718</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5516,19 +5516,19 @@
         <v>5287.3</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q79" s="2">
-        <v>2000</v>
+        <v>1956</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5539,7 +5539,7 @@
         <v>179</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>40</v>
@@ -5578,19 +5578,19 @@
         <v>2983</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="Q80" s="2">
-        <v>2060</v>
+        <v>3000</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5632,19 +5632,19 @@
         <v>2983</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="Q81" s="2">
-        <v>2850</v>
+        <v>1000</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5686,19 +5686,19 @@
         <v>2983</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="Q82" s="2">
-        <v>3000</v>
+        <v>2850</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -5740,19 +5740,19 @@
         <v>2983</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="Q83" s="2">
-        <v>1000</v>
+        <v>2060</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5763,7 +5763,7 @@
         <v>190</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>40</v>
@@ -5802,19 +5802,19 @@
         <v>4081</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q84" s="2">
-        <v>13698</v>
+        <v>1850</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5856,19 +5856,19 @@
         <v>4081</v>
       </c>
       <c r="P85" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>26602</v>
+      </c>
+      <c r="R85" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="Q85" s="2">
-        <v>317</v>
-      </c>
-      <c r="R85" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="S85" s="2" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5910,19 +5910,19 @@
         <v>4081</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q86" s="2">
-        <v>24802</v>
+        <v>317</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5964,19 +5964,19 @@
         <v>4081</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q87" s="2">
-        <v>1850</v>
+        <v>13698</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6018,19 +6018,19 @@
         <v>4081</v>
       </c>
       <c r="P88" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>24802</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T88" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>26602</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6041,7 +6041,7 @@
         <v>190</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>40</v>
@@ -6080,19 +6080,19 @@
         <v>1025.25</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="Q89" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6134,19 +6134,19 @@
         <v>1025.25</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="Q90" s="2">
-        <v>303</v>
+        <v>470</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6188,19 +6188,19 @@
         <v>1025.25</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="Q91" s="2">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6242,19 +6242,19 @@
         <v>1025.25</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Q92" s="2">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6265,7 +6265,7 @@
         <v>190</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>40</v>
@@ -6304,19 +6304,19 @@
         <v>6325</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="Q93" s="2">
-        <v>20084</v>
+        <v>3544</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6358,19 +6358,19 @@
         <v>6325</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q94" s="2">
-        <v>2288</v>
+        <v>17743</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6412,19 +6412,19 @@
         <v>6325</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q95" s="2">
-        <v>17022</v>
+        <v>730</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6466,19 +6466,19 @@
         <v>6325</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q96" s="2">
-        <v>3544</v>
+        <v>2288</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -6520,19 +6520,19 @@
         <v>6325</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q97" s="2">
-        <v>17743</v>
+        <v>20084</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -6574,19 +6574,19 @@
         <v>6325</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Q98" s="2">
-        <v>730</v>
+        <v>17022</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -6597,7 +6597,7 @@
         <v>190</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>40</v>
@@ -6636,19 +6636,19 @@
         <v>4810</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="Q99" s="2">
-        <v>18606</v>
+        <v>28854</v>
       </c>
       <c r="R99" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -6690,19 +6690,19 @@
         <v>4810</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q100" s="2">
-        <v>28854</v>
+        <v>14062</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -6744,19 +6744,19 @@
         <v>4810</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Q101" s="2">
-        <v>14062</v>
+        <v>18606</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -6767,7 +6767,7 @@
         <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>40</v>
@@ -6808,7 +6808,7 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2" t="s">
@@ -6823,7 +6823,7 @@
         <v>190</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>40</v>
@@ -6862,19 +6862,19 @@
         <v>16058.6</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="Q103" s="2">
-        <v>1000</v>
+        <v>244</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -6916,19 +6916,19 @@
         <v>16058.6</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="Q104" s="2">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -6970,19 +6970,19 @@
         <v>16058.6</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q105" s="2">
-        <v>1000</v>
+        <v>2483</v>
       </c>
       <c r="R105" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7024,19 +7024,19 @@
         <v>16058.6</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q106" s="2">
         <v>1000</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7078,19 +7078,19 @@
         <v>16058.6</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="Q107" s="2">
-        <v>3592</v>
+        <v>1000</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7132,19 +7132,19 @@
         <v>16058.6</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="Q108" s="2">
-        <v>2031</v>
+        <v>1000</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>76</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7186,19 +7186,19 @@
         <v>16058.6</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="Q109" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7240,19 +7240,19 @@
         <v>16058.6</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="Q110" s="2">
-        <v>2000</v>
+        <v>317</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7294,19 +7294,19 @@
         <v>16058.6</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="Q111" s="2">
-        <v>913</v>
+        <v>2000</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7348,19 +7348,19 @@
         <v>16058.6</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="Q112" s="2">
-        <v>1532</v>
+        <v>2000</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -7402,19 +7402,19 @@
         <v>16058.6</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="Q113" s="2">
-        <v>1008</v>
+        <v>913</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>64</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -7456,19 +7456,19 @@
         <v>16058.6</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="Q114" s="2">
-        <v>2483</v>
+        <v>1532</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -7513,16 +7513,16 @@
         <v>207</v>
       </c>
       <c r="Q115" s="2">
-        <v>317</v>
+        <v>3592</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -7564,19 +7564,19 @@
         <v>16058.6</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="Q116" s="2">
-        <v>244</v>
+        <v>2031</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -7587,7 +7587,7 @@
         <v>190</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>40</v>
@@ -7626,19 +7626,19 @@
         <v>294.84</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="Q117" s="2">
-        <v>1044</v>
+        <v>307</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -7680,19 +7680,19 @@
         <v>294.84</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q118" s="2">
         <v>870</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -7734,19 +7734,19 @@
         <v>294.84</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q119" s="2">
         <v>1500</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -7791,16 +7791,16 @@
         <v>75</v>
       </c>
       <c r="Q120" s="2">
-        <v>1580</v>
+        <v>1044</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>76</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -7842,19 +7842,19 @@
         <v>294.84</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="Q121" s="2">
-        <v>307</v>
+        <v>1580</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -7865,7 +7865,7 @@
         <v>190</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>40</v>
@@ -7906,7 +7906,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2" t="s">
@@ -7921,7 +7921,7 @@
         <v>210</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>40</v>
@@ -7960,19 +7960,19 @@
         <v>5287.3</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="Q123" s="2">
-        <v>1255</v>
+        <v>410</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8014,19 +8014,19 @@
         <v>5287.3</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="Q124" s="2">
-        <v>2597</v>
+        <v>2000</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8068,19 +8068,19 @@
         <v>5287.3</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="Q125" s="2">
-        <v>1000</v>
+        <v>1665</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8122,19 +8122,19 @@
         <v>5287.3</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Q126" s="2">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8176,19 +8176,19 @@
         <v>5287.3</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="Q127" s="2">
-        <v>410</v>
+        <v>2597</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8230,19 +8230,19 @@
         <v>5287.3</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Q128" s="2">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -8284,19 +8284,19 @@
         <v>5287.3</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="Q129" s="2">
-        <v>1665</v>
+        <v>985</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -8307,7 +8307,7 @@
         <v>214</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>40</v>
@@ -8346,7 +8346,7 @@
         <v>284.2</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q130" s="2">
         <v>937</v>
@@ -8355,7 +8355,7 @@
         <v>26</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>216</v>
@@ -8369,7 +8369,7 @@
         <v>214</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>40</v>
@@ -8425,7 +8425,7 @@
         <v>214</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>40</v>
@@ -8481,7 +8481,7 @@
         <v>214</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>40</v>
@@ -8520,7 +8520,7 @@
         <v>5.4</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q133" s="2">
         <v>144</v>
@@ -8529,10 +8529,10 @@
         <v>26</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -8543,7 +8543,7 @@
         <v>214</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>40</v>
@@ -8599,7 +8599,7 @@
         <v>214</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>40</v>
@@ -8640,7 +8640,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2" t="s">
@@ -8655,7 +8655,7 @@
         <v>214</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>40</v>
@@ -8711,7 +8711,7 @@
         <v>214</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>40</v>
@@ -8767,7 +8767,7 @@
         <v>214</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>40</v>
@@ -8823,7 +8823,7 @@
         <v>214</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>40</v>
@@ -8879,7 +8879,7 @@
         <v>214</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>40</v>
@@ -8927,10 +8927,10 @@
         <v>26</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -8941,7 +8941,7 @@
         <v>214</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>40</v>
@@ -8997,7 +8997,7 @@
         <v>214</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>40</v>
@@ -9053,7 +9053,7 @@
         <v>214</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>40</v>
@@ -9109,7 +9109,7 @@
         <v>214</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>40</v>
@@ -9165,7 +9165,7 @@
         <v>214</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>40</v>
@@ -9221,7 +9221,7 @@
         <v>224</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>155</v>
@@ -9266,13 +9266,13 @@
         <v>5953</v>
       </c>
       <c r="R146" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -9283,7 +9283,7 @@
         <v>224</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>155</v>
@@ -9324,7 +9324,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S147" s="2"/>
       <c r="T147" s="2" t="s">
@@ -9339,7 +9339,7 @@
         <v>224</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>155</v>
@@ -9380,7 +9380,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S148" s="2"/>
       <c r="T148" s="2" t="s">
@@ -9395,7 +9395,7 @@
         <v>228</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>40</v>
@@ -9451,7 +9451,7 @@
         <v>228</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>40</v>
@@ -9492,7 +9492,7 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S150" s="2"/>
       <c r="T150" s="2" t="s">
@@ -9507,7 +9507,7 @@
         <v>228</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>40</v>
@@ -9548,7 +9548,7 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S151" s="2"/>
       <c r="T151" s="2" t="s">
@@ -9563,7 +9563,7 @@
         <v>228</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>40</v>
@@ -9604,7 +9604,7 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2" t="s">

--- a/forms/po/po_sts_xls.xlsx
+++ b/forms/po/po_sts_xls.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PO status - 2020-11-16" sheetId="1" r:id="rId4"/>
+    <sheet name="PO status - 2021-01-07" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>NO</t>
   </si>
@@ -77,373 +77,478 @@
     <t>DIFFERENCE</t>
   </si>
   <si>
-    <t>FI-SL/18-033</t>
-  </si>
-  <si>
-    <t>20 Mar 2018</t>
+    <t>FI-SL/18-027</t>
+  </si>
+  <si>
+    <t>06 Mar 2018</t>
   </si>
   <si>
     <t>400024-SWARGA LOKA DINAMIKA, PT.</t>
   </si>
   <si>
-    <t>INNER SONY KAUNET LR03 4S R3</t>
+    <t>MLBL FJ LONGLIFE JEC PET LR03N</t>
   </si>
   <si>
     <t>US$</t>
   </si>
   <si>
-    <t>03 Apr 2018</t>
-  </si>
-  <si>
-    <t>05 Apr 2018</t>
+    <t>09 Apr 2018</t>
+  </si>
+  <si>
+    <t>26 Mar 2018</t>
+  </si>
+  <si>
+    <t>-14 DAY</t>
+  </si>
+  <si>
+    <t>FI-SL/18-036</t>
+  </si>
+  <si>
+    <t>27 Mar 2018</t>
+  </si>
+  <si>
+    <t>14 May 2018</t>
+  </si>
+  <si>
+    <t>0 DAY</t>
+  </si>
+  <si>
+    <t>FI-SL/18-054</t>
+  </si>
+  <si>
+    <t>11 May 2018</t>
+  </si>
+  <si>
+    <t>25 Jun 2018</t>
+  </si>
+  <si>
+    <t>05 Jun 2018</t>
+  </si>
+  <si>
+    <t>-20 DAY</t>
+  </si>
+  <si>
+    <t>FI-SL/18-064</t>
+  </si>
+  <si>
+    <t>08 Jun 2018</t>
+  </si>
+  <si>
+    <t>SL044304</t>
+  </si>
+  <si>
+    <t>09 Jul 2018</t>
+  </si>
+  <si>
+    <t>06 Jul 2018</t>
+  </si>
+  <si>
+    <t>-3 DAY</t>
+  </si>
+  <si>
+    <t>SL044367</t>
+  </si>
+  <si>
+    <t>SL045092</t>
+  </si>
+  <si>
+    <t>10 Aug 2018</t>
+  </si>
+  <si>
+    <t>13 Aug 2018</t>
+  </si>
+  <si>
+    <t>3 DAY</t>
+  </si>
+  <si>
+    <t>FI-SL/18-080</t>
+  </si>
+  <si>
+    <t>27 Jul 2018</t>
+  </si>
+  <si>
+    <t>SL045384</t>
+  </si>
+  <si>
+    <t>03 Sep 2018</t>
+  </si>
+  <si>
+    <t>SL045847</t>
+  </si>
+  <si>
+    <t>02 Oct 2018</t>
+  </si>
+  <si>
+    <t>01 Oct 2018</t>
+  </si>
+  <si>
+    <t>-1 DAY</t>
+  </si>
+  <si>
+    <t>FI-SL/18-083</t>
+  </si>
+  <si>
+    <t>09 Aug 2018</t>
+  </si>
+  <si>
+    <t>SL045383</t>
+  </si>
+  <si>
+    <t>04 Sep 2018</t>
+  </si>
+  <si>
+    <t>FI-SL/18-091</t>
+  </si>
+  <si>
+    <t>30 Aug 2018</t>
+  </si>
+  <si>
+    <t>SL045848</t>
+  </si>
+  <si>
+    <t>FI-SL/18-111</t>
+  </si>
+  <si>
+    <t>18 Oct 2018</t>
+  </si>
+  <si>
+    <t>SL046601</t>
+  </si>
+  <si>
+    <t>07 Nov 2018</t>
+  </si>
+  <si>
+    <t>FI-SL/18-121</t>
+  </si>
+  <si>
+    <t>14 Nov 2018</t>
+  </si>
+  <si>
+    <t>SL047189</t>
+  </si>
+  <si>
+    <t>06 Dec 2018</t>
+  </si>
+  <si>
+    <t>SL047190</t>
+  </si>
+  <si>
+    <t>07 Dec 2018</t>
+  </si>
+  <si>
+    <t>FI-SL/19-007</t>
+  </si>
+  <si>
+    <t>10 Jan 2019</t>
+  </si>
+  <si>
+    <t>SL048032.</t>
+  </si>
+  <si>
+    <t>01 Feb 2019</t>
+  </si>
+  <si>
+    <t>25 Jan 2019</t>
+  </si>
+  <si>
+    <t>-7 DAY</t>
+  </si>
+  <si>
+    <t>SL048143</t>
+  </si>
+  <si>
+    <t>FI-SL/19-009</t>
+  </si>
+  <si>
+    <t>12 Jan 2019</t>
+  </si>
+  <si>
+    <t>SL048456</t>
+  </si>
+  <si>
+    <t>18 Feb 2019</t>
+  </si>
+  <si>
+    <t>SL048558</t>
+  </si>
+  <si>
+    <t>25 Feb 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-012</t>
+  </si>
+  <si>
+    <t>23 Jan 2019</t>
+  </si>
+  <si>
+    <t>SL048677</t>
+  </si>
+  <si>
+    <t>01 Mar 2019</t>
+  </si>
+  <si>
+    <t>SL048814</t>
+  </si>
+  <si>
+    <t>08 Mar 2019</t>
+  </si>
+  <si>
+    <t>06 Mar 2019</t>
+  </si>
+  <si>
+    <t>-2 DAY</t>
+  </si>
+  <si>
+    <t>FI-SL/19-029</t>
+  </si>
+  <si>
+    <t>02 Apr 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-042</t>
+  </si>
+  <si>
+    <t>08 Apr 2019</t>
+  </si>
+  <si>
+    <t>049597-</t>
+  </si>
+  <si>
+    <t>23 Apr 2019</t>
+  </si>
+  <si>
+    <t>22 Apr 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-070</t>
+  </si>
+  <si>
+    <t>01 Jul 2019</t>
+  </si>
+  <si>
+    <t>11 Jul 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-076</t>
+  </si>
+  <si>
+    <t>08 Jul 2019</t>
+  </si>
+  <si>
+    <t>12 Jul 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-085</t>
+  </si>
+  <si>
+    <t>24 Jul 2019</t>
+  </si>
+  <si>
+    <t>30 Jul 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-092</t>
+  </si>
+  <si>
+    <t>02 Aug 2019</t>
+  </si>
+  <si>
+    <t>03 Sep 2019</t>
+  </si>
+  <si>
+    <t>04 Sep 2019</t>
+  </si>
+  <si>
+    <t>1 DAY</t>
+  </si>
+  <si>
+    <t>FI-SL/19-096</t>
+  </si>
+  <si>
+    <t>15 Aug 2019</t>
+  </si>
+  <si>
+    <t>02 Sep 2019</t>
   </si>
   <si>
     <t>2 DAY</t>
   </si>
   <si>
-    <t>FI-SL/18-063</t>
-  </si>
-  <si>
-    <t>07 Jun 2018</t>
-  </si>
-  <si>
-    <t>SL044475</t>
-  </si>
-  <si>
-    <t>11 Jul 2018</t>
-  </si>
-  <si>
-    <t>12 Jul 2018</t>
-  </si>
-  <si>
-    <t>1 DAY</t>
-  </si>
-  <si>
-    <t>SL044443</t>
-  </si>
-  <si>
-    <t>0 DAY</t>
-  </si>
-  <si>
-    <t>FI-SL/18-101</t>
-  </si>
-  <si>
-    <t>26 Sep 2018</t>
-  </si>
-  <si>
-    <t>SL045905</t>
-  </si>
-  <si>
-    <t>05 Oct 2018</t>
-  </si>
-  <si>
-    <t>03 Oct 2018</t>
-  </si>
-  <si>
-    <t>-2 DAY</t>
-  </si>
-  <si>
-    <t>FI-SL/18-136</t>
-  </si>
-  <si>
-    <t>10 Dec 2018</t>
-  </si>
-  <si>
-    <t>SLD047469</t>
-  </si>
-  <si>
-    <t>21 Dec 2018</t>
-  </si>
-  <si>
-    <t>20 Dec 2018</t>
-  </si>
-  <si>
-    <t>-1 DAY</t>
-  </si>
-  <si>
-    <t>FI-SL/19-030</t>
-  </si>
-  <si>
-    <t>11 Mar 2019</t>
-  </si>
-  <si>
-    <t>SL048943</t>
-  </si>
-  <si>
-    <t>15 Mar 2019</t>
-  </si>
-  <si>
-    <t>14 Mar 2019</t>
-  </si>
-  <si>
-    <t>FI-SL/19-044</t>
-  </si>
-  <si>
-    <t>12 Apr 2019</t>
-  </si>
-  <si>
-    <t>26 Apr 2019</t>
-  </si>
-  <si>
-    <t>25 Apr 2019</t>
-  </si>
-  <si>
-    <t>29 Apr 2019</t>
-  </si>
-  <si>
-    <t>3 DAY</t>
-  </si>
-  <si>
-    <t>FI-SL/19-053</t>
-  </si>
-  <si>
-    <t>09 May 2019</t>
-  </si>
-  <si>
-    <t>24 May 2019</t>
-  </si>
-  <si>
-    <t>01 Jun 2019</t>
-  </si>
-  <si>
-    <t>8 DAY</t>
-  </si>
-  <si>
-    <t>FI-SL/19-089</t>
-  </si>
-  <si>
-    <t>01 Aug 2019</t>
-  </si>
-  <si>
-    <t>13 Aug 2019</t>
-  </si>
-  <si>
-    <t>20 Aug 2019</t>
-  </si>
-  <si>
-    <t>19 Aug 2019</t>
-  </si>
-  <si>
-    <t>FI-SL/19-122</t>
+    <t>FI-SL/19-103</t>
+  </si>
+  <si>
+    <t>23 Aug 2019</t>
+  </si>
+  <si>
+    <t>27 Sep 2019</t>
   </si>
   <si>
     <t>26 Sep 2019</t>
   </si>
   <si>
-    <t>08 Oct 2019</t>
-  </si>
-  <si>
-    <t>04 Oct 2019</t>
-  </si>
-  <si>
-    <t>-4 DAY</t>
-  </si>
-  <si>
-    <t>07 Oct 2019</t>
-  </si>
-  <si>
-    <t>FI-SL/19-137</t>
-  </si>
-  <si>
-    <t>18 Oct 2019</t>
-  </si>
-  <si>
-    <t>30 Oct 2019</t>
-  </si>
-  <si>
-    <t>21 Oct 2019</t>
-  </si>
-  <si>
-    <t>-9 DAY</t>
-  </si>
-  <si>
-    <t>31 Oct 2019</t>
-  </si>
-  <si>
-    <t>FI-SL/19-144</t>
-  </si>
-  <si>
-    <t>07 Nov 2019</t>
+    <t>FI-SL/19-116</t>
+  </si>
+  <si>
+    <t>17 Sep 2019</t>
+  </si>
+  <si>
+    <t>14 Oct 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-124</t>
+  </si>
+  <si>
+    <t>04 Nov 2019</t>
+  </si>
+  <si>
+    <t>05 Nov 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-139</t>
+  </si>
+  <si>
+    <t>24 Oct 2019</t>
+  </si>
+  <si>
+    <t>09 Dec 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/19-149</t>
   </si>
   <si>
     <t>18 Nov 2019</t>
   </si>
   <si>
-    <t>FI-SL/19-151</t>
-  </si>
-  <si>
-    <t>19 Nov 2019</t>
-  </si>
-  <si>
-    <t>06 Dec 2019</t>
-  </si>
-  <si>
-    <t>FI-SL/19-157</t>
-  </si>
-  <si>
-    <t>18 Dec 2019</t>
-  </si>
-  <si>
-    <t>FI-SL/19-158</t>
-  </si>
-  <si>
-    <t>10 Dec 2019</t>
-  </si>
-  <si>
-    <t>17 Jan 2020</t>
-  </si>
-  <si>
-    <t>13 Jan 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-017</t>
+    <t>03 Feb 2020</t>
+  </si>
+  <si>
+    <t>10 Mar 2020</t>
+  </si>
+  <si>
+    <t>09 Mar 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/19-156</t>
+  </si>
+  <si>
+    <t>02 Dec 2019</t>
+  </si>
+  <si>
+    <t>19 Dec 2019</t>
+  </si>
+  <si>
+    <t>FI-SL/20-007</t>
+  </si>
+  <si>
+    <t>14 Jan 2020</t>
+  </si>
+  <si>
+    <t>17 Feb 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/20-012</t>
+  </si>
+  <si>
+    <t>20 Jan 2020</t>
+  </si>
+  <si>
+    <t>10 Feb 2020</t>
+  </si>
+  <si>
+    <t>11 Feb 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/20-018</t>
   </si>
   <si>
     <t>27 Jan 2020</t>
   </si>
   <si>
-    <t>05 Feb 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-025</t>
-  </si>
-  <si>
-    <t>12 Feb 2020</t>
-  </si>
-  <si>
-    <t>21 Feb 2020</t>
+    <t>02 Mar 2020</t>
+  </si>
+  <si>
+    <t>03 Mar 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/20-030</t>
   </si>
   <si>
     <t>20 Feb 2020</t>
   </si>
   <si>
-    <t>FI-SL/20-034</t>
-  </si>
-  <si>
-    <t>13 Mar 2020</t>
-  </si>
-  <si>
-    <t>16 Mar 2020</t>
-  </si>
-  <si>
-    <t>23 Mar 2020</t>
-  </si>
-  <si>
-    <t>19 Mar 2020</t>
-  </si>
-  <si>
-    <t>26 Mar 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-036</t>
-  </si>
-  <si>
-    <t>18 Mar 2020</t>
-  </si>
-  <si>
-    <t>27 Mar 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-040</t>
-  </si>
-  <si>
-    <t>24 Mar 2020</t>
-  </si>
-  <si>
-    <t>06 Apr 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-059</t>
-  </si>
-  <si>
-    <t>24 Apr 2020</t>
-  </si>
-  <si>
-    <t>13 May 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-083</t>
-  </si>
-  <si>
-    <t>10 Jul 2020</t>
-  </si>
-  <si>
-    <t>20 Jul 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-090</t>
-  </si>
-  <si>
-    <t>23 Jul 2020</t>
-  </si>
-  <si>
-    <t>31 Jul 2020</t>
-  </si>
-  <si>
-    <t>03 Aug 2020</t>
-  </si>
-  <si>
-    <t>29 Jul 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-100</t>
-  </si>
-  <si>
-    <t>03 Sep 2020</t>
-  </si>
-  <si>
-    <t>18 Sep 2020</t>
-  </si>
-  <si>
-    <t>17 Sep 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-104</t>
-  </si>
-  <si>
-    <t>16 Sep 2020</t>
-  </si>
-  <si>
-    <t>24 Sep 2020</t>
+    <t>FI-SL/20-039</t>
+  </si>
+  <si>
+    <t>20 Mar 2020</t>
+  </si>
+  <si>
+    <t>13 Apr 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/20-044</t>
+  </si>
+  <si>
+    <t>02 Apr 2020</t>
+  </si>
+  <si>
+    <t>27 Apr 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/20-062</t>
+  </si>
+  <si>
+    <t>29 Apr 2020</t>
+  </si>
+  <si>
+    <t>18 May 2020</t>
+  </si>
+  <si>
+    <t>19 May 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/20-106</t>
+  </si>
+  <si>
+    <t>21 Sep 2020</t>
+  </si>
+  <si>
+    <t>05 Oct 2020</t>
   </si>
   <si>
     <t>28 Sep 2020</t>
   </si>
   <si>
+    <t>FI-SL/20-114</t>
+  </si>
+  <si>
+    <t>15 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Nov 2020</t>
+  </si>
+  <si>
+    <t>FI-SL/20-120</t>
+  </si>
+  <si>
+    <t>28 Oct 2020</t>
+  </si>
+  <si>
+    <t>13 Nov 2020</t>
+  </si>
+  <si>
+    <t>17 Nov 2020</t>
+  </si>
+  <si>
     <t>4 DAY</t>
   </si>
   <si>
-    <t>FI-SL/20-108</t>
-  </si>
-  <si>
-    <t>21 Sep 2020</t>
-  </si>
-  <si>
-    <t>02 Oct 2020</t>
-  </si>
-  <si>
-    <t>01 Oct 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-115</t>
-  </si>
-  <si>
-    <t>15 Oct 2020</t>
-  </si>
-  <si>
-    <t>23 Oct 2020</t>
-  </si>
-  <si>
-    <t>21 Oct 2020</t>
-  </si>
-  <si>
-    <t>FI-SL/20-122</t>
-  </si>
-  <si>
-    <t>02 Nov 2020</t>
-  </si>
-  <si>
-    <t>16 Nov 2020</t>
+    <t>RBI-SL/20-138</t>
+  </si>
+  <si>
+    <t>08 Dec 2020</t>
+  </si>
+  <si>
+    <t>04 Jan 2021</t>
   </si>
   <si>
     <t xml:space="preserve"> DAY</t>
@@ -823,10 +928,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R39" sqref="R39"/>
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -929,40 +1034,40 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="K2" s="3">
-        <v>0.0542</v>
+        <v>0.0051</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N2" s="3">
-        <v>542</v>
+        <v>1275</v>
       </c>
       <c r="O2" s="3">
-        <v>542</v>
+        <v>1275</v>
       </c>
       <c r="P2" s="3">
-        <v>42915</v>
+        <v>42714</v>
       </c>
       <c r="Q2" s="2">
         <v>200</v>
@@ -991,123 +1096,131 @@
         <v>22</v>
       </c>
       <c r="E3" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="K3" s="3">
-        <v>0.0542</v>
+        <v>0.0051</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N3" s="3">
-        <v>542</v>
+        <v>2550</v>
       </c>
       <c r="O3" s="3">
-        <v>542</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>30</v>
+        <v>2550</v>
+      </c>
+      <c r="P3" s="3">
+        <v>43617</v>
       </c>
       <c r="Q3" s="2">
         <v>200</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="K4" s="3">
-        <v>0.0542</v>
+        <v>0.0051</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N4" s="3">
-        <v>542</v>
+        <v>1275</v>
       </c>
       <c r="O4" s="3">
-        <v>542</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>34</v>
+        <v>1275</v>
+      </c>
+      <c r="P4" s="3">
+        <v>43942</v>
       </c>
       <c r="Q4" s="2">
         <v>200</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -1116,60 +1229,52 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="K5" s="3">
-        <v>0.0542</v>
+        <v>0.0051</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N5" s="3">
-        <v>542</v>
+        <v>2040</v>
       </c>
       <c r="O5" s="3">
-        <v>542</v>
+        <v>2040</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2">
         <v>200</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -1178,43 +1283,43 @@
         <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="K6" s="3">
-        <v>0.0542</v>
+        <v>0.0051</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N6" s="3">
-        <v>542</v>
+        <v>2040</v>
       </c>
       <c r="O6" s="3">
-        <v>542</v>
+        <v>2040</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="2">
         <v>200</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1222,58 +1327,58 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
-        <v>1200</v>
+        <v>300000</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>1200</v>
+        <v>300000</v>
       </c>
       <c r="K7" s="3">
-        <v>0.3024</v>
+        <v>0.0051</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N7" s="3">
-        <v>362.88</v>
+        <v>1530</v>
       </c>
       <c r="O7" s="3">
-        <v>362.88</v>
+        <v>1530</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="2">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>47</v>
@@ -1284,256 +1389,264 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1530</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1530</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1275</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.0725</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N8" s="3">
-        <v>362.5</v>
-      </c>
-      <c r="O8" s="3">
-        <v>362.5</v>
-      </c>
-      <c r="P8" s="3">
-        <v>49689</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>4279</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="T9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.0725</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N9" s="3">
-        <v>362.5</v>
-      </c>
-      <c r="O9" s="3">
-        <v>362.5</v>
-      </c>
-      <c r="P9" s="3">
-        <v>49727</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>721</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1530</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1530</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.0725</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N10" s="3">
-        <v>362.5</v>
-      </c>
-      <c r="O10" s="3">
-        <v>362.5</v>
-      </c>
-      <c r="P10" s="3">
-        <v>50256</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>5000</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="S10" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3">
-        <v>2100</v>
+        <v>300000</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>2100</v>
+        <v>300000</v>
       </c>
       <c r="K11" s="3">
-        <v>0.0542</v>
+        <v>0.0051</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N11" s="3">
-        <v>113.82</v>
+        <v>1530</v>
       </c>
       <c r="O11" s="3">
-        <v>113.82</v>
-      </c>
-      <c r="P11" s="3">
-        <v>51900</v>
+        <v>1530</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="Q11" s="2">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>23</v>
@@ -1542,176 +1655,184 @@
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>2100</v>
+        <v>300000</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>2100</v>
+        <v>300000</v>
       </c>
       <c r="K12" s="3">
-        <v>0.0542</v>
+        <v>0.0051</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N12" s="3">
-        <v>113.82</v>
+        <v>1530</v>
       </c>
       <c r="O12" s="3">
-        <v>113.82</v>
-      </c>
-      <c r="P12" s="3">
-        <v>52008</v>
+        <v>1530</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="Q12" s="2">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1020</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1020</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="Q13" s="2">
+        <v>200</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.3024</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N13" s="3">
-        <v>846.72</v>
-      </c>
-      <c r="O13" s="3">
-        <v>846.72</v>
-      </c>
-      <c r="P13" s="3">
-        <v>52908</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1600</v>
-      </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1530</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1530</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="Q14" s="2">
+        <v>200</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.3024</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N14" s="3">
-        <v>846.72</v>
-      </c>
-      <c r="O14" s="3">
-        <v>846.72</v>
-      </c>
-      <c r="P14" s="3">
-        <v>52946</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1200</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="S14" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>23</v>
@@ -1720,43 +1841,43 @@
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>1500</v>
+        <v>300000</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>1500</v>
+        <v>300000</v>
       </c>
       <c r="K15" s="3">
-        <v>0.3024</v>
+        <v>0.0051</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M15" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N15" s="3">
-        <v>453.6</v>
+        <v>1530</v>
       </c>
       <c r="O15" s="3">
-        <v>453.6</v>
-      </c>
-      <c r="P15" s="3">
-        <v>53164</v>
+        <v>1530</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="Q15" s="2">
-        <v>312</v>
+        <v>80000</v>
       </c>
       <c r="R15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1765,7 +1886,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>23</v>
@@ -1774,96 +1895,96 @@
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>1500</v>
+        <v>300000</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>1500</v>
+        <v>300000</v>
       </c>
       <c r="K16" s="3">
-        <v>0.3024</v>
+        <v>0.0051</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M16" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N16" s="3">
-        <v>453.6</v>
+        <v>1530</v>
       </c>
       <c r="O16" s="3">
-        <v>453.6</v>
-      </c>
-      <c r="P16" s="3">
-        <v>53288</v>
+        <v>1530</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="Q16" s="2">
-        <v>1188</v>
+        <v>220000</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N17" s="3">
+        <v>510</v>
+      </c>
+      <c r="O17" s="3">
+        <v>510</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.3024</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N17" s="3">
-        <v>453.6</v>
-      </c>
-      <c r="O17" s="3">
-        <v>453.6</v>
-      </c>
-      <c r="P17" s="3">
-        <v>53704</v>
-      </c>
       <c r="Q17" s="2">
-        <v>1500</v>
+        <v>100000</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>83</v>
@@ -1872,184 +1993,184 @@
         <v>83</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>150000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N18" s="3">
+        <v>765</v>
+      </c>
+      <c r="O18" s="3">
+        <v>765</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="Q18" s="2">
+        <v>150000</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.3024</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N18" s="3">
-        <v>816.48</v>
-      </c>
-      <c r="O18" s="3">
-        <v>816.48</v>
-      </c>
-      <c r="P18" s="3">
-        <v>53993</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>2700</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="S18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="K19" s="3">
-        <v>0.1129</v>
+        <v>0.0051</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N19" s="3">
-        <v>338.7</v>
+        <v>1530</v>
       </c>
       <c r="O19" s="3">
-        <v>338.7</v>
-      </c>
-      <c r="P19" s="3">
-        <v>54195</v>
+        <v>1530</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="Q19" s="2">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1020</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1020</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2123131</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.1129</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N20" s="3">
-        <v>338.7</v>
-      </c>
-      <c r="O20" s="3">
-        <v>338.7</v>
-      </c>
-      <c r="P20" s="3">
-        <v>54481</v>
-      </c>
       <c r="Q20" s="2">
-        <v>3000</v>
+        <v>200000</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>91</v>
@@ -2058,24 +2179,24 @@
         <v>92</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>23</v>
@@ -2084,34 +2205,34 @@
         <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>3000</v>
+        <v>600000</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>3000</v>
+        <v>600000</v>
       </c>
       <c r="K21" s="3">
-        <v>0.1129</v>
+        <v>0.0051</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N21" s="3">
-        <v>338.7</v>
+        <v>3060</v>
       </c>
       <c r="O21" s="3">
-        <v>338.7</v>
+        <v>3060</v>
       </c>
       <c r="P21" s="3">
-        <v>54860</v>
+        <v>49204</v>
       </c>
       <c r="Q21" s="2">
-        <v>3000</v>
+        <v>600000</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>95</v>
@@ -2120,12 +2241,12 @@
         <v>95</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>96</v>
@@ -2137,417 +2258,441 @@
         <v>22</v>
       </c>
       <c r="E22" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="K22" s="3">
-        <v>0.0813</v>
+        <v>0.0051</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N22" s="3">
-        <v>406.5</v>
+        <v>1275</v>
       </c>
       <c r="O22" s="3">
-        <v>406.5</v>
-      </c>
-      <c r="P22" s="3">
-        <v>55137</v>
+        <v>1275</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="Q22" s="2">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3">
-        <v>150</v>
+        <v>300000</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>150</v>
+        <v>300000</v>
       </c>
       <c r="K23" s="3">
-        <v>0.5842</v>
+        <v>0.0051</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N23" s="3">
-        <v>87.63</v>
+        <v>1530</v>
       </c>
       <c r="O23" s="3">
-        <v>87.63</v>
+        <v>1530</v>
       </c>
       <c r="P23" s="3">
-        <v>55559</v>
+        <v>51146</v>
       </c>
       <c r="Q23" s="2">
-        <v>150</v>
+        <v>300000</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="K24" s="3">
-        <v>0.5842</v>
+        <v>0.0051</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N24" s="3">
-        <v>876.3</v>
+        <v>1275</v>
       </c>
       <c r="O24" s="3">
-        <v>876.3</v>
+        <v>1275</v>
       </c>
       <c r="P24" s="3">
-        <v>55601</v>
+        <v>51149</v>
       </c>
       <c r="Q24" s="2">
-        <v>100</v>
+        <v>250000</v>
       </c>
       <c r="R24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="T24" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E25" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="K25" s="3">
-        <v>0.5842</v>
+        <v>0.0051</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M25" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N25" s="3">
-        <v>876.3</v>
+        <v>1275</v>
       </c>
       <c r="O25" s="3">
-        <v>876.3</v>
+        <v>1275</v>
       </c>
       <c r="P25" s="3">
-        <v>55689</v>
+        <v>51536</v>
       </c>
       <c r="Q25" s="2">
-        <v>51</v>
+        <v>250000</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E26" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="K26" s="3">
-        <v>0.5842</v>
+        <v>0.0051</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N26" s="3">
-        <v>876.3</v>
+        <v>1275</v>
       </c>
       <c r="O26" s="3">
-        <v>876.3</v>
+        <v>1275</v>
       </c>
       <c r="P26" s="3">
-        <v>55667</v>
+        <v>52308</v>
       </c>
       <c r="Q26" s="2">
-        <v>1349</v>
+        <v>250000</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="K27" s="3">
-        <v>0.1129</v>
+        <v>0.0051</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N27" s="3">
-        <v>338.7</v>
+        <v>1275</v>
       </c>
       <c r="O27" s="3">
-        <v>338.7</v>
+        <v>1275</v>
       </c>
       <c r="P27" s="3">
-        <v>55690</v>
+        <v>52307</v>
       </c>
       <c r="Q27" s="2">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E28" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="K28" s="3">
-        <v>0.1129</v>
+        <v>0.0051</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M28" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N28" s="3">
-        <v>338.7</v>
+        <v>1275</v>
       </c>
       <c r="O28" s="3">
-        <v>338.7</v>
+        <v>1275</v>
       </c>
       <c r="P28" s="3">
-        <v>55703</v>
+        <v>52729</v>
       </c>
       <c r="Q28" s="2">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>23</v>
@@ -2556,486 +2701,494 @@
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="K29" s="3">
-        <v>0.0813</v>
+        <v>0.0051</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N29" s="3">
-        <v>406.5</v>
+        <v>1530</v>
       </c>
       <c r="O29" s="3">
-        <v>406.5</v>
+        <v>1530</v>
       </c>
       <c r="P29" s="3">
-        <v>55823</v>
+        <v>53077</v>
       </c>
       <c r="Q29" s="2">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="K30" s="3">
-        <v>0.5842</v>
+        <v>0.0051</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M30" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N30" s="3">
-        <v>292.1</v>
+        <v>1275</v>
       </c>
       <c r="O30" s="3">
-        <v>292.1</v>
+        <v>1275</v>
       </c>
       <c r="P30" s="3">
-        <v>56428</v>
+        <v>53409</v>
       </c>
       <c r="Q30" s="2">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="R30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H31" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
       </c>
       <c r="J31" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="K31" s="3">
-        <v>0.3296</v>
+        <v>0.0051</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M31" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N31" s="3">
-        <v>494.4</v>
+        <v>1275</v>
       </c>
       <c r="O31" s="3">
-        <v>494.4</v>
+        <v>1275</v>
       </c>
       <c r="P31" s="3">
-        <v>57172</v>
+        <v>54004</v>
       </c>
       <c r="Q31" s="2">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="K32" s="3">
-        <v>0.079</v>
+        <v>0.0051</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N32" s="3">
-        <v>395</v>
+        <v>1275</v>
       </c>
       <c r="O32" s="3">
-        <v>395</v>
+        <v>1275</v>
       </c>
       <c r="P32" s="3">
-        <v>57291</v>
+        <v>54814</v>
       </c>
       <c r="Q32" s="2">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E33" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H33" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="K33" s="3">
-        <v>0.079</v>
+        <v>0.0051</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N33" s="3">
-        <v>395</v>
+        <v>765</v>
       </c>
       <c r="O33" s="3">
-        <v>395</v>
+        <v>765</v>
       </c>
       <c r="P33" s="3">
-        <v>57286</v>
+        <v>55462</v>
       </c>
       <c r="Q33" s="2">
-        <v>2000</v>
+        <v>150000</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H34" s="3">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="K34" s="3">
-        <v>0.3296</v>
+        <v>0.0051</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M34" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N34" s="3">
-        <v>824</v>
+        <v>1275</v>
       </c>
       <c r="O34" s="3">
-        <v>824</v>
+        <v>1275</v>
       </c>
       <c r="P34" s="3">
-        <v>57969</v>
+        <v>54203</v>
       </c>
       <c r="Q34" s="2">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="3">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="K35" s="3">
-        <v>0.1231</v>
+        <v>0.0051</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M35" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N35" s="3">
-        <v>369.3</v>
+        <v>1275</v>
       </c>
       <c r="O35" s="3">
-        <v>369.3</v>
+        <v>1275</v>
       </c>
       <c r="P35" s="3">
-        <v>58124</v>
+        <v>55069</v>
       </c>
       <c r="Q35" s="2">
-        <v>3000</v>
+        <v>250000</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="K36" s="3">
-        <v>0.3296</v>
+        <v>0.0051</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N36" s="3">
-        <v>494.4</v>
+        <v>1275</v>
       </c>
       <c r="O36" s="3">
-        <v>494.4</v>
+        <v>1275</v>
       </c>
       <c r="P36" s="3">
-        <v>58185</v>
+        <v>54951</v>
       </c>
       <c r="Q36" s="2">
-        <v>1500</v>
+        <v>250000</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>23</v>
@@ -3044,52 +3197,60 @@
         <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>6500</v>
+        <v>250000</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <v>6500</v>
+        <v>250000</v>
       </c>
       <c r="K37" s="3">
-        <v>0.079</v>
+        <v>0.0051</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M37" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N37" s="3">
-        <v>513.5</v>
+        <v>1275</v>
       </c>
       <c r="O37" s="3">
-        <v>513.5</v>
+        <v>1275</v>
       </c>
       <c r="P37" s="3">
-        <v>58590</v>
+        <v>55340</v>
       </c>
       <c r="Q37" s="2">
-        <v>5500</v>
+        <v>250000</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="T37" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E38" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>23</v>
@@ -3098,99 +3259,581 @@
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <v>6500</v>
+        <v>250000</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>6500</v>
+        <v>250000</v>
       </c>
       <c r="K38" s="3">
-        <v>0.079</v>
+        <v>0.0051</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M38" s="3">
-        <v>0.253</v>
+        <v>0.0056</v>
       </c>
       <c r="N38" s="3">
-        <v>513.5</v>
+        <v>1275</v>
       </c>
       <c r="O38" s="3">
-        <v>513.5</v>
+        <v>1275</v>
       </c>
       <c r="P38" s="3">
-        <v>58536</v>
+        <v>55463</v>
       </c>
       <c r="Q38" s="2">
-        <v>1000</v>
+        <v>250000</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="2">
-        <v>2123131</v>
+        <v>1242134</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="3">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1530</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1530</v>
+      </c>
+      <c r="P39" s="3">
+        <v>55924</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1275</v>
+      </c>
+      <c r="P40" s="3">
+        <v>56171</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>250000</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1530</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1530</v>
+      </c>
+      <c r="P41" s="3">
+        <v>56505</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.00694</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2082</v>
+      </c>
+      <c r="O42" s="3">
+        <v>2082</v>
+      </c>
+      <c r="P42" s="3">
+        <v>58139</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1275</v>
+      </c>
+      <c r="P43" s="3">
+        <v>58815</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>250000</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1275</v>
+      </c>
+      <c r="P44" s="3">
+        <v>59011</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>160000</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1275</v>
+      </c>
+      <c r="P45" s="3">
+        <v>58945</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>90000</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="3">
         <v>3</v>
       </c>
-      <c r="H39" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I39" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0.0591</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="N39" s="3">
-        <v>679.65</v>
-      </c>
-      <c r="O39" s="3">
-        <v>679.65</v>
-      </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2" t="s">
-        <v>143</v>
+      <c r="H46" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1275</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1242134</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.0051</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.0056</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1275</v>
+      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
